--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE ROLES Y PRIVILEGIOS.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE ROLES Y PRIVILEGIOS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CPH" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="22" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2200,7 +2200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2963,7 +2962,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10717,7 +10715,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10838,7 +10836,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11022,7 +11020,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11364,7 +11362,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N354"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
@@ -13770,7 +13768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE ROLES Y PRIVILEGIOS.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE ROLES Y PRIVILEGIOS.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
-    <sheet name="CPH" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles y Privilegios " sheetId="1" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1778,7 +1778,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2079,7 +2078,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5035,7 +5033,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45042.736674074076" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="350">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N1048576" sheet="CPH"/>
+    <worksheetSource ref="A6:N1048576" sheet="Roles y Privilegios "/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -10715,128 +10713,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11019,8 +10896,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11074,6 +10951,127 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11362,7 +11360,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N354"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
@@ -13768,7 +13766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
